--- a/config_2.2/activity_year_config.xlsx
+++ b/config_2.2/activity_year_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="164">
   <si>
     <t>id|行号</t>
   </si>
@@ -348,10 +348,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>立冬福袋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>normal</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -396,10 +392,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_own_task_p_034_xyxfl</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -600,10 +592,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>狂欢福利</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>activity_043_khfl_config</t>
   </si>
   <si>
@@ -631,14 +619,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>阳光榜单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>暖心好礼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>赢一把就睡觉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -656,6 +636,26 @@
   </si>
   <si>
     <t>"act_039_ty_sjb","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年福袋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏福利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹排行榜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹换好礼</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -850,11 +850,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1136,10 +1136,10 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L33" sqref="L33"/>
+      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1181,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1849,7 +1849,7 @@
         <v>28</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O12" s="3">
         <v>1</v>
@@ -1863,17 +1863,17 @@
       <c r="S12" s="7">
         <v>44215.3125</v>
       </c>
-      <c r="T12" s="28">
+      <c r="T12" s="27">
         <v>1610380800</v>
       </c>
       <c r="U12" s="7">
         <v>44221.999988425923</v>
       </c>
-      <c r="V12" s="28">
+      <c r="V12" s="27">
         <v>1611590399</v>
       </c>
       <c r="W12" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1963,7 +1963,7 @@
         <v>27</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O14" s="3">
         <v>1</v>
@@ -2051,55 +2051,57 @@
       <c r="B16" s="11">
         <v>15</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>2</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="23" t="s">
+      <c r="C16" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <v>3</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3" t="s">
+      <c r="I16" s="15">
+        <v>1</v>
+      </c>
+      <c r="J16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O16" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="S16" s="7">
-        <v>44138.3125</v>
-      </c>
-      <c r="T16" s="19">
-        <v>1604359800</v>
-      </c>
-      <c r="U16" s="7">
-        <v>44144.999988425923</v>
-      </c>
-      <c r="V16" s="19">
-        <v>1604937599</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="K16" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14">
+        <v>1</v>
+      </c>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="S16" s="16">
+        <v>43863.3125</v>
+      </c>
+      <c r="T16" s="28">
+        <v>1612224000</v>
+      </c>
+      <c r="U16" s="16">
+        <v>44235.999988425923</v>
+      </c>
+      <c r="V16" s="28">
+        <v>1612799999</v>
+      </c>
+      <c r="W16" s="14"/>
     </row>
     <row r="17" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -2109,7 +2111,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -2118,7 +2120,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H17" s="23" t="s">
         <v>23</v>
@@ -2127,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O17" s="3">
         <v>1</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S17" s="7">
         <v>44138.3125</v>
@@ -2157,7 +2159,7 @@
         <v>1604937599</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -2168,7 +2170,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8">
@@ -2178,10 +2180,10 @@
         <v>2</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I18" s="8">
         <v>0</v>
@@ -2190,13 +2192,13 @@
         <v>27</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O18" s="3">
         <v>1</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>49</v>
@@ -2222,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8">
@@ -2232,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H19" s="23" t="s">
         <v>23</v>
@@ -2241,16 +2243,16 @@
         <v>0</v>
       </c>
       <c r="J19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="O19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>49</v>
@@ -2276,7 +2278,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8">
@@ -2286,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H20" s="23" t="s">
         <v>23</v>
@@ -2304,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>49</v>
@@ -2330,7 +2332,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -2339,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H21" s="23" t="s">
         <v>23</v>
@@ -2357,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>49</v>
@@ -2383,7 +2385,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -2392,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H22" s="23" t="s">
         <v>23</v>
@@ -2410,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>49</v>
@@ -2418,13 +2420,13 @@
       <c r="S22" s="7">
         <v>44215.3125</v>
       </c>
-      <c r="T22" s="28">
+      <c r="T22" s="27">
         <v>1610380800</v>
       </c>
       <c r="U22" s="7">
         <v>44221.999988425923</v>
       </c>
-      <c r="V22" s="28">
+      <c r="V22" s="27">
         <v>1611590399</v>
       </c>
     </row>
@@ -2436,7 +2438,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H23" s="23" t="s">
         <v>23</v>
@@ -2463,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>49</v>
@@ -2471,13 +2473,13 @@
       <c r="S23" s="7">
         <v>44215.3125</v>
       </c>
-      <c r="T23" s="28">
+      <c r="T23" s="27">
         <v>1610380800</v>
       </c>
       <c r="U23" s="7">
         <v>44221.999988425923</v>
       </c>
-      <c r="V23" s="28">
+      <c r="V23" s="27">
         <v>1611590399</v>
       </c>
     </row>
@@ -2489,7 +2491,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -2498,7 +2500,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H24" s="23" t="s">
         <v>23</v>
@@ -2516,10 +2518,10 @@
         <v>1</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="S24" s="7">
         <v>44180.333333333336</v>
@@ -2542,7 +2544,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="8">
         <v>0</v>
@@ -2551,7 +2553,7 @@
         <v>3</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H25" s="23" t="s">
         <v>23</v>
@@ -2566,13 +2568,13 @@
         <v>28</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O25" s="3">
         <v>1</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R25" s="3" t="s">
         <v>22</v>
@@ -2590,7 +2592,7 @@
         <v>1610380799</v>
       </c>
       <c r="W25" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2601,7 +2603,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E26" s="8">
         <v>0</v>
@@ -2610,10 +2612,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I26" s="8">
         <v>0</v>
@@ -2622,27 +2624,27 @@
         <v>27</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O26" s="3">
         <v>1</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S26" s="7">
         <v>44215.3125</v>
       </c>
-      <c r="T26" s="28">
+      <c r="T26" s="27">
         <v>1610380800</v>
       </c>
       <c r="U26" s="7">
         <v>44221.999988425923</v>
       </c>
-      <c r="V26" s="28">
+      <c r="V26" s="27">
         <v>1611590399</v>
       </c>
     </row>
@@ -2654,7 +2656,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E27" s="8">
         <v>0</v>
@@ -2663,10 +2665,10 @@
         <v>2</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I27" s="8">
         <v>0</v>
@@ -2675,16 +2677,16 @@
         <v>27</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O27" s="3">
         <v>1</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="S27" s="7">
         <v>44208.3125</v>
@@ -2707,7 +2709,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E28" s="8">
         <v>0</v>
@@ -2716,10 +2718,10 @@
         <v>3</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I28" s="8">
         <v>0</v>
@@ -2728,16 +2730,16 @@
         <v>27</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O28" s="3">
         <v>1</v>
       </c>
       <c r="Q28" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R28" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="S28" s="7">
         <v>44208.3125</v>
@@ -2760,7 +2762,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E29" s="8">
         <v>0</v>
@@ -2769,10 +2771,10 @@
         <v>4</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I29" s="8">
         <v>0</v>
@@ -2781,19 +2783,19 @@
         <v>27</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O29" s="3">
         <v>1</v>
       </c>
       <c r="Q29" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="S29" s="7">
         <v>44208.3125</v>
@@ -2816,10 +2818,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E30" s="15">
         <v>0</v>
@@ -2828,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H30" s="24" t="s">
         <v>23</v>
@@ -2850,22 +2852,22 @@
       </c>
       <c r="P30" s="14"/>
       <c r="Q30" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R30" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S30" s="16">
-        <v>44222.3125</v>
-      </c>
-      <c r="T30" s="27">
-        <v>1611619200</v>
+        <v>43863.3125</v>
+      </c>
+      <c r="T30" s="28">
+        <v>1612224000</v>
       </c>
       <c r="U30" s="16">
-        <v>44228.999988425923</v>
-      </c>
-      <c r="V30" s="27">
-        <v>1612195199</v>
+        <v>44235.999988425923</v>
+      </c>
+      <c r="V30" s="28">
+        <v>1612799999</v>
       </c>
       <c r="W30" s="14"/>
     </row>
@@ -2877,10 +2879,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E31" s="14">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H31" s="24" t="s">
         <v>23</v>
@@ -2911,22 +2913,22 @@
       </c>
       <c r="P31" s="14"/>
       <c r="Q31" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="R31" s="14" t="s">
         <v>49</v>
       </c>
       <c r="S31" s="16">
-        <v>44222.3125</v>
-      </c>
-      <c r="T31" s="27">
-        <v>1611619200</v>
+        <v>43863.3125</v>
+      </c>
+      <c r="T31" s="28">
+        <v>1612224000</v>
       </c>
       <c r="U31" s="16">
-        <v>44228.999988425923</v>
-      </c>
-      <c r="V31" s="27">
-        <v>1612195199</v>
+        <v>44235.999988425923</v>
+      </c>
+      <c r="V31" s="28">
+        <v>1612799999</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2937,56 +2939,59 @@
       <c r="B32" s="11">
         <v>31</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E32" s="8">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
+      <c r="C32" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0</v>
+      </c>
+      <c r="F32" s="15">
+        <v>4</v>
+      </c>
+      <c r="G32" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="8">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
+      <c r="I32" s="15">
+        <v>1</v>
+      </c>
+      <c r="J32" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L32" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="R32" s="3" t="s">
+      <c r="L32" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14">
+        <v>1</v>
+      </c>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="R32" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="S32" s="7">
-        <v>44215.3125</v>
+      <c r="S32" s="16">
+        <v>43863.3125</v>
       </c>
       <c r="T32" s="28">
-        <v>1611014400</v>
-      </c>
-      <c r="U32" s="7">
-        <v>44221.999988425923</v>
+        <v>1612224000</v>
+      </c>
+      <c r="U32" s="16">
+        <v>44235.999988425923</v>
       </c>
       <c r="V32" s="28">
-        <v>1611590399</v>
+        <v>1612799999</v>
       </c>
     </row>
     <row r="33" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -2996,51 +3001,47 @@
       <c r="B33" s="11">
         <v>32</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15">
-        <v>0</v>
-      </c>
-      <c r="F33" s="15">
+      <c r="C33" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
         <v>3</v>
       </c>
-      <c r="G33" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="H33" s="24" t="s">
+      <c r="G33" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H33" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="15">
-        <v>1</v>
-      </c>
-      <c r="J33" s="14" t="s">
+      <c r="I33" s="8">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="K33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14">
-        <v>1</v>
-      </c>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="R33" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="S33" s="16">
+      <c r="L33" s="12"/>
+      <c r="O33" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="S33" s="7">
         <v>44222.3125</v>
       </c>
       <c r="T33" s="27">
         <v>1611619200</v>
       </c>
-      <c r="U33" s="16">
+      <c r="U33" s="7">
         <v>44228.999988425923</v>
       </c>
       <c r="V33" s="27">

--- a/config_2.2/activity_year_config.xlsx
+++ b/config_2.2/activity_year_config.xlsx
@@ -595,10 +595,6 @@
     <t>activity_043_khfl_config</t>
   </si>
   <si>
-    <t>"GameComAct1","activity_043_khfl_config"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"act_039_ty_by_hhl","panel"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -656,6 +652,10 @@
   </si>
   <si>
     <t>爆竹换好礼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GameComAct1","activity_044_khfl_config"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1136,10 +1136,10 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1181,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2052,7 +2052,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15">
@@ -2087,7 +2087,7 @@
         <v>93</v>
       </c>
       <c r="R16" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S16" s="16">
         <v>43863.3125</v>
@@ -2630,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>144</v>
@@ -2818,10 +2818,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E30" s="15">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E31" s="14">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H31" s="24" t="s">
         <v>23</v>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="P31" s="14"/>
       <c r="Q31" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R31" s="14" t="s">
         <v>49</v>
@@ -2940,10 +2940,10 @@
         <v>31</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E32" s="15">
         <v>0</v>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="P32" s="14"/>
       <c r="Q32" s="14" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="R32" s="14" t="s">
         <v>22</v>
@@ -3002,7 +3002,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E33" s="8">
         <v>0</v>
@@ -3011,7 +3011,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H33" s="23" t="s">
         <v>23</v>
@@ -3030,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>145</v>
